--- a/src/test/resources/POD-TestData.xlsx
+++ b/src/test/resources/POD-TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tecra_WorkData\WorkData\ACGen5\AT\Implemented Scripts\ACGen5_PrintOrderDemand\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\API Testing\Rest Assured API Testing Practice\Eclipse\Git Project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333ADE62-4871-43E9-99F7-D13244B1B0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856693F3-0E2B-4DD9-AE9A-E0BA68D63B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,7 +722,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AJ1" sqref="AJ1"/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
